--- a/tests/artifact/script/Mobile-Invoice.xlsx
+++ b/tests/artifact/script/Mobile-Invoice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6830" tabRatio="500" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="18350" windowHeight="6920" tabRatio="500" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -60,7 +60,20 @@
     <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
     <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3206,12 +3219,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -3838,16 +3851,16 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -15424,10 +15437,10 @@
   <sheetPr/>
   <dimension ref="A1:O178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
+      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
